--- a/biology/Histoire de la zoologie et de la botanique/Camillo_Sbarbaro/Camillo_Sbarbaro.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Camillo_Sbarbaro/Camillo_Sbarbaro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camillo Sbarbaro (né le 12 janvier 1888 à Santa Margherita Ligure, province de Gênes – mort le 31 octobre 1967 à Savone, dans la province du même nom) est un poète et écrivain italien.
 Il était également un passionné de l’étude des lichens.
@@ -514,19 +526,96 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Poésie
-Resine, Caimo, Gênes 1911
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Resine, Caimo, Gênes 1911
 Pianissimo, Edizioni de La Voce, Florence, 1914
 Trucioli (1914-1918), Vallecchi, Florence, 1920
 Liquidazione (1914-1918), Ribet, Turin, 1928
 Rimanenze, All'Insegna del Pesce d'Oro, Milan, 1955
 Primizie, Scheiwiller, Milan, 1958
-Poesie, All'Insegna del Pesce d'oro, Milan, 1961
-Traductions françaises
-Pianissimo, suivi de Rémanences, traduction de Bernard Vargaftig, Bruna Zanchi et Jean-Baptiste Para, préface de Giuseppe Conte, Clémence Hiver Éditeur, 1991
-Copeaux, suivi de Feux follets, suivi de Souvenir de Sbarbaro d’Eugenio Montale, traduction de Jean-Baptiste Para, préface de Jean-Baptiste Para, Clémence Hiver Éditeur, 1991
-Prose
-Fuochi fatui, All'insegna del Pesce d'Oro, Milan, 1956
+Poesie, All'Insegna del Pesce d'oro, Milan, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Camillo_Sbarbaro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camillo_Sbarbaro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pianissimo, suivi de Rémanences, traduction de Bernard Vargaftig, Bruna Zanchi et Jean-Baptiste Para, préface de Giuseppe Conte, Clémence Hiver Éditeur, 1991
+Copeaux, suivi de Feux follets, suivi de Souvenir de Sbarbaro d’Eugenio Montale, traduction de Jean-Baptiste Para, préface de Jean-Baptiste Para, Clémence Hiver Éditeur, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camillo_Sbarbaro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camillo_Sbarbaro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fuochi fatui, All'insegna del Pesce d'Oro, Milan, 1956
 Scampoli, Vallecchi, Florence, 1960
 Gocce, Scheiwiller, Milan, 1963
 Quisquilie, Scheiwiller, Milan, 1967</t>
